--- a/InterviewTest/output/230024/230024_failed.xlsx
+++ b/InterviewTest/output/230024/230024_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4738335-1118-4722-BEB5-A7106E2C2CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A265D-0068-4EC1-871B-1E960E7FA863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>Example:  SINH_CH: 9.9; VAN_CH: 9.9</t>
+    <t>Example:  SINH_CH: 16.7; VAN_CH: 9.9</t>
   </si>
   <si>
     <t>Fail</t>

--- a/InterviewTest/output/230024/230024_failed.xlsx
+++ b/InterviewTest/output/230024/230024_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A265D-0068-4EC1-871B-1E960E7FA863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24173BCC-3259-477C-A584-A25AC16CE5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="32310" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230024/230024_failed.xlsx
+++ b/InterviewTest/output/230024/230024_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24173BCC-3259-477C-A584-A25AC16CE5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD65335-AE06-4C42-A337-3F480C6A8344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
